--- a/biology/Médecine/Pertuzumab/Pertuzumab.xlsx
+++ b/biology/Médecine/Pertuzumab/Pertuzumab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le pertuzumab (commercialisé sous le nom de Perjeta) est un anticorps monoclonal développé par Genentech pour le traitement des cancers du sein HER2-positifs, en combinaison avec le trastuzumab et le docetaxel[1]. En se liant à HER2, il inhibe la dimérisation de la protéine HER2 avec d'autres récepteurs HER, ce qui contribue à ralentir la croissance tumorale[2].
+Le pertuzumab (commercialisé sous le nom de Perjeta) est un anticorps monoclonal développé par Genentech pour le traitement des cancers du sein HER2-positifs, en combinaison avec le trastuzumab et le docetaxel. En se liant à HER2, il inhibe la dimérisation de la protéine HER2 avec d'autres récepteurs HER, ce qui contribue à ralentir la croissance tumorale.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Essais cliniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des essais cliniques de phase précoce concernant l'efficacité du pertuzumab pour le traitement des cancers de la prostate, du sein et des ovaires ont montré un succès limité[3].
-L'association du pertuzumab au trastuzumab et au docetaxel, comparée à un placebo associé au trastuzumab et au docetaxel, utilisé en première ligne de traitement de cancers du sein HER2-positifs métastatiques, a significativement prolongé la survie sans progression, sans augmentation des effets toxiques cardiaques selon les résultats de l'essai clinique de phase III randomisé en double-aveugle CLEOPATRA[4].
-L'administration intraveineuse de pertuzumab est actuellement évaluée chez des patients atteints d'un cancer du sein dans les essais cliniques suivants : MARIANNE (cancer du sein avancé), NEOSPHERE (cancer du sein précoce), TRYPHAENA (cancer du sein HER2-positif de stade II/III) et APHINITY (cancer du sein HER2-positif non métastatique)[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des essais cliniques de phase précoce concernant l'efficacité du pertuzumab pour le traitement des cancers de la prostate, du sein et des ovaires ont montré un succès limité.
+L'association du pertuzumab au trastuzumab et au docetaxel, comparée à un placebo associé au trastuzumab et au docetaxel, utilisé en première ligne de traitement de cancers du sein HER2-positifs métastatiques, a significativement prolongé la survie sans progression, sans augmentation des effets toxiques cardiaques selon les résultats de l'essai clinique de phase III randomisé en double-aveugle CLEOPATRA.
+L'administration intraveineuse de pertuzumab est actuellement évaluée chez des patients atteints d'un cancer du sein dans les essais cliniques suivants : MARIANNE (cancer du sein avancé), NEOSPHERE (cancer du sein précoce), TRYPHAENA (cancer du sein HER2-positif de stade II/III) et APHINITY (cancer du sein HER2-positif non métastatique).
 </t>
         </is>
       </c>
